--- a/data/vehicle_stock/scrappage_rates.xlsx
+++ b/data/vehicle_stock/scrappage_rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekb15182\LocalCodeFolder\osemobility\data\vehicle_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A86D6EFE-A90A-4DEE-BA73-316EC54E3114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE493113-7109-4BA4-AE79-30F8EFC5587A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{FE64481C-DAB8-4CDE-8904-362B2E2AB897}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{FE64481C-DAB8-4CDE-8904-362B2E2AB897}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,12 +163,12 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -509,7 +509,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -518,22 +518,22 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -541,19 +541,19 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
       <c r="G2" t="s">
@@ -564,19 +564,19 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>7.9045927462296772E-3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>2.1108649734593254E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>0.10875946977277418</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>4.8270659836643692E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>4.0324569279432065E-2</v>
       </c>
     </row>
@@ -584,19 +584,19 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>2.5454566692597158E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>5.8558837497162397E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>0.21605160687230018</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>0.11469293940741543</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>9.4494972327526572E-2</v>
       </c>
     </row>
@@ -604,19 +604,19 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>5.007266613676209E-2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>0.10493411834999256</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>0.3141907281095988</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>0.18646538887395325</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>0.15305506956562742</v>
       </c>
     </row>
@@ -624,19 +624,19 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>8.0359930777937683E-2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>0.15690613724014757</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>0.40224955737205759</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0.25915053820576006</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>0.21288654275414876</v>
       </c>
     </row>
@@ -644,19 +644,19 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.11522288490132471</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="5">
+        <v>0.115222884901325</v>
+      </c>
+      <c r="C7" s="5">
         <v>0.21221363457542941</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>0.48046083535761064</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>0.33028739922957506</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>0.27225961424110257</v>
       </c>
     </row>
@@ -664,19 +664,19 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>0.15371655452666422</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>0.26915482474722574</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>0.54946557900551829</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>0.39838326170720673</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>0.33009317056066756</v>
       </c>
     </row>
@@ -684,19 +684,19 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>0.19499305413156687</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>0.32640264730679702</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>0.61005516304241891</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>0.4625302787249248</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>0.38568625842871984</v>
       </c>
     </row>
@@ -704,19 +704,19 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>0.23828210053788301</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>0.38291432637533873</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>0.66305810141967259</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>0.52220944539150072</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>0.43858758062603764</v>
       </c>
     </row>
@@ -724,19 +724,19 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>0.2828835511566189</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>0.43787712778845622</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>0.70928490241090258</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>0.57717230437899736</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>0.48852044270450434</v>
       </c>
     </row>
@@ -744,19 +744,19 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>0.3281647762690526</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>0.49067044434120655</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>0.74950053197422561</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>0.62736201230527966</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>0.53533462663817932</v>
       </c>
     </row>
@@ -764,19 +764,19 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>0.37355981012188466</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>0.54083622872269532</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>0.78441138079217887</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>0.67285733910741663</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>0.57897318303199929</v>
       </c>
     </row>
@@ -784,19 +784,19 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>0.41856886059904463</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>0.5880542533015618</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>0.81466030279916857</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>0.71383146379932105</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>0.61944834416896433</v>
       </c>
     </row>
@@ -804,19 +804,19 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>0.46275749904510532</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>0.63212055882855767</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>0.84082626824535756</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>0.75052104435085187</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>0.65682345219125837</v>
       </c>
     </row>
@@ -824,19 +824,19 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="5">
         <v>0.50575522453720756</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>0.67292830874818532</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>0.86342665269566354</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>0.78320279722269837</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
         <v>0.69119909375178401</v>
       </c>
     </row>
@@ -844,19 +844,19 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>0.54725329847267179</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>0.71045066723051886</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>0.8829209802393605</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>0.81217575826378452</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>0.72270231180786237</v>
       </c>
     </row>
@@ -864,19 +864,19 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
         <v>0.58700185937048088</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>0.74472550648827596</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>0.89971539618268126</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>0.83774793683553017</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>0.75147814646629119</v>
       </c>
     </row>
@@ -884,19 +884,19 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>0.62480639300887542</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>0.77584183109311899</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>0.91416741919557365</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>0.86022641026997604</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
         <v>0.77768298381668277</v>
       </c>
     </row>
@@ -904,19 +904,19 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>0.6605236689235473</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>0.80392783667854884</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>0.92659069389724324</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>0.87991012811578928</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>0.8014793341818045</v>
       </c>
     </row>
@@ -924,19 +924,19 @@
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>0.69405727148479546</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>0.82914052463222332</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>0.93725957403917715</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <v>0.89708485200869847</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>0.82303175499349224</v>
       </c>
     </row>
@@ -944,19 +944,19 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
         <v>0.72535285851817455</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>0.85165678741242634</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>0.94641343729955441</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>0.91201977256256983</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>0.84250369794347191</v>
       </c>
     </row>
@@ -964,19 +964,19 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
         <v>0.75439327672626832</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>0.87166586859849637</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <v>0.9542606790809699</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>0.92496543349331828</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="5">
         <v>0.86005510609997726</v>
       </c>
     </row>
@@ -984,19 +984,19 @@
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>0.78119365374806848</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>0.88936309170426764</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <v>0.96098236307175822</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <v>0.93615266348792925</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="5">
         <v>0.87584062073981883</v>
       </c>
     </row>
@@ -1004,19 +1004,19 @@
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
         <v>0.80579657354807166</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <v>0.90494474410437864</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>0.96673552604128032</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <v>0.9457922731379842</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="5">
         <v>0.89000828361489548</v>
       </c>
     </row>
@@ -1024,19 +1024,19 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="5">
         <v>0.82826742646728213</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>0.91860399792986069</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <v>0.97165614686618651</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="5">
         <v>0.95407532078385171</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="5">
         <v>0.90269864068949202</v>
       </c>
     </row>
@@ -1044,19 +1044,19 @@
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="5">
         <v>0.84869000885971979</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
         <v>0.93052774859296483</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <v>0.97586179743502244</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="5">
         <v>0.96117378952200505</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="5">
         <v>0.91404416962170199</v>
       </c>
     </row>
@@ -1064,19 +1064,19 @@
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="5">
         <v>0.86716243068765375</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
         <v>0.94089425343804378</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="5">
         <v>0.97945399741199024</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="5">
         <v>0.96724154944276752</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="5">
         <v>0.92416896646182223</v>
       </c>
     </row>
@@ -1084,19 +1084,19 @@
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="5">
         <v>0.88379337345265407</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
         <v>0.94987145742931489</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="5">
         <v>0.98252029692595644</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="5">
         <v>0.97241550552726252</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="5">
         <v>0.93318863791438778</v>
       </c>
     </row>
@@ -1104,19 +1104,19 @@
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="5">
         <v>0.89869872591612276</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <v>0.9576158992420849</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="5">
         <v>0.98513611182785499</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="5">
         <v>0.97681685342650693</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="5">
         <v>0.94121035455849966</v>
       </c>
     </row>
@@ -1124,19 +1124,19 @@
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
         <v>0.91199861157852347</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <v>0.96427209907699507</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="5">
         <v>0.98736633574418264</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="5">
         <v>0.98055238328822381</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="5">
         <v>0.94833302800424224</v>
       </c>
     </row>
@@ -1144,19 +1144,19 @@
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="5">
         <v>0.9238148100766912</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <v>0.96997233845577735</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <v>0.98926675210690218</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="5">
         <v>0.98371578648259461</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="5">
         <v>0.95464758134946115</v>
       </c>
     </row>
@@ -1164,19 +1164,19 @@
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <v>0.93426856464815322</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
         <v>0.97483675172784257</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="5">
         <v>0.99088526791268394</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="5">
         <v>0.98638893201017785</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="5">
         <v>0.96023728769555039</v>
       </c>
     </row>
@@ -1184,19 +1184,19 @@
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="5">
         <v>0.94347875963270478</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <v>0.97897365863462738</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="5">
         <v>0.99226298933228729</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="5">
         <v>0.98864308898484232</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="5">
         <v>0.96517815604329182</v>
       </c>
     </row>
@@ -1204,19 +1204,19 @@
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="5">
         <v>0.95156044559236186</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="5">
         <v>0.98248007673025561</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="5">
         <v>0.99343515757468015</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="5">
         <v>0.9905400792434903</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="5">
         <v>0.96953934774837436</v>
       </c>
     </row>
@@ -1224,19 +1224,19 @@
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="5">
         <v>0.95862368493095795</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
         <v>0.98544236150037301</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="5">
         <v>0.9944319616920132</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="5">
         <v>0.99213335016365656</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="5">
         <v>0.97338360997570361</v>
       </c>
     </row>
@@ -1244,19 +1244,19 @@
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="5">
         <v>0.96477268774113145</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="5">
         <v>0.98793693047867082</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="5">
         <v>0.99527924334478812</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="5">
         <v>0.99346896244673477</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="5">
         <v>0.976767715338973</v>
       </c>
     </row>
@@ -1264,19 +1264,19 @@
       <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="5">
         <v>0.97010520582748594</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="5">
         <v>0.99003103541295712</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="5">
         <v>0.99599910696562444</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="5">
         <v>0.99458649118687581</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="5">
         <v>0.97974289922047342</v>
       </c>
     </row>
@@ -1284,19 +1284,19 @@
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="5">
         <v>0.97471215226189689</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="5">
         <v>0.99178355350932568</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="5">
         <v>0.99661044728502479</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="5">
         <v>0.99551984119749193</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="5">
         <v>0.98235528819812734</v>
       </c>
     </row>
@@ -1304,19 +1304,19 @@
       <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="5">
         <v>0.97867741422563281</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="5">
         <v>0.99324577495447974</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="5">
         <v>0.99712940482360279</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="5">
         <v>0.99629797948246335</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="5">
         <v>0.98464631461578833</v>
       </c>
     </row>
@@ -1324,19 +1324,19 @@
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="5">
         <v>0.98207782809077515</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="5">
         <v>0.99446216928561748</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="5">
         <v>0.99756975871567222</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="5">
         <v>0.99694558906446218</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="5">
         <v>0.98665311366513275</v>
       </c>
     </row>
@@ -1344,19 +1344,19 @@
       <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="5">
         <v>0.98498328750704078</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="5">
         <v>0.99547111777241637</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="5">
         <v>0.99794326510746889</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="5">
         <v>0.99748364924167943</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="5">
         <v>0.98840890044304031</v>
       </c>
     </row>
@@ -1364,19 +1364,19 @@
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="5">
         <v>0.98745695752023088</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="5">
         <v>0.99630560284267411</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="5">
         <v>0.99825994836511134</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="5">
         <v>0.99792994783946487</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="5">
         <v>0.98994332534195473</v>
       </c>
     </row>
@@ -1384,19 +1384,19 @@
       <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="5">
         <v>0.98955557030338692</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="5">
         <v>0.99699384878039721</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="5">
         <v>0.99852835142626151</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="5">
         <v>0.99829953123998605</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="5">
         <v>0.99128280685256176</v>
       </c>
     </row>
@@ -1404,19 +1404,19 @@
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="5">
         <v>0.99132978079914746</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="5">
         <v>0.99755991051825699</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="5">
         <v>0.99875575082778978</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="5">
         <v>0.99860509798057651</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="5">
         <v>0.99245084143446305</v>
       </c>
     </row>
@@ -1424,19 +1424,19 @@
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="5">
         <v>0.99282456334003355</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="5">
         <v>0.99802420940434267</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="5">
         <v>0.99894834123150444</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="5">
         <v>0.99885734156646322</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="5">
         <v>0.99346829056413821</v>
       </c>
     </row>
@@ -1444,19 +1444,19 @@
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="5">
         <v>0.9940796330411239</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="5">
         <v>0.99840401641518162</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="5">
         <v>0.99911139364300872</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="5">
         <v>0.9990652478913481</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="5">
         <v>0.99435364542013027</v>
       </c>
     </row>
@@ -1464,19 +1464,19 @@
       <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="5">
         <v>0.99512987837498001</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="5">
         <v>0.99871388448000242</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="5">
         <v>0.99924939096697007</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="5">
         <v>0.99923635233578822</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="5">
         <v>0.99512326993010547</v>
       </c>
     </row>
@@ -1484,19 +1484,19 @@
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="5">
         <v>0.99600579378800835</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="5">
         <v>0.99896603243818549</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="5">
         <v>0.9993661440578645</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="5">
         <v>0.99937696124656106</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="5">
         <v>0.99579162309794722</v>
       </c>
     </row>
@@ -1504,19 +1504,19 @@
       <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="5">
         <v>0.99673390346322199</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="5">
         <v>0.99917068373070561</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="5">
         <v>0.99946489100138003</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="5">
         <v>0.99949234211179849</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="5">
         <v>0.99637146166396862</v>
       </c>
     </row>
@@ -1524,19 +1524,19 @@
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="5">
         <v>0.99733716935330652</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="5">
         <v>0.99933636327930098</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="5">
         <v>0.99954838199144802</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="5">
         <v>0.99958688635290982</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="5">
         <v>0.99687402423847671</v>
       </c>
     </row>
@@ -1544,19 +1544,19 @@
       <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="5">
         <v>0.99783537838876057</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="5">
         <v>0.99947015618024149</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="5">
         <v>0.99961895184517668</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="5">
         <v>0.99966424826713107</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="5">
         <v>0.99730919809751206</v>
       </c>
     </row>
